--- a/results/Semaine Olympique Francaise De Voile 2017_49erFX.xlsx
+++ b/results/Semaine Olympique Francaise De Voile 2017_49erFX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="93">
   <si>
     <t>Nome Competidor</t>
   </si>
@@ -175,7 +175,10 @@
     <t>17.0</t>
   </si>
   <si>
-    <t>medal</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>MR</t>
   </si>
   <si>
     <t>UFD</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -704,17 +707,20 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -733,17 +739,20 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -762,17 +771,20 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -791,17 +803,20 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -820,17 +835,20 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -849,17 +867,20 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -878,17 +899,20 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -907,17 +931,20 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -936,17 +963,20 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -965,17 +995,20 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -994,17 +1027,20 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1023,17 +1059,20 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1053,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1084,17 +1123,20 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1113,17 +1155,20 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1142,17 +1187,20 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1171,17 +1219,20 @@
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1200,17 +1251,20 @@
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1229,17 +1283,20 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1258,17 +1315,20 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1287,17 +1347,20 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1316,17 +1379,20 @@
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1345,17 +1411,20 @@
       <c r="E24">
         <v>0</v>
       </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1374,17 +1443,20 @@
       <c r="E25">
         <v>0</v>
       </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1403,17 +1475,20 @@
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1433,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1464,17 +1539,20 @@
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1493,17 +1571,20 @@
       <c r="E29">
         <v>0</v>
       </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1522,17 +1603,20 @@
       <c r="E30">
         <v>0</v>
       </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1551,17 +1635,20 @@
       <c r="E31">
         <v>0</v>
       </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1580,17 +1667,20 @@
       <c r="E32">
         <v>0</v>
       </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1609,17 +1699,20 @@
       <c r="E33">
         <v>0</v>
       </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1638,17 +1731,20 @@
       <c r="E34">
         <v>1</v>
       </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1667,17 +1763,20 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1696,17 +1795,20 @@
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1725,17 +1827,20 @@
       <c r="E37">
         <v>0</v>
       </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1754,17 +1859,20 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1783,17 +1891,20 @@
       <c r="E39">
         <v>0</v>
       </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1844,17 +1955,20 @@
       <c r="E41">
         <v>0</v>
       </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1873,20 +1987,23 @@
       <c r="E42">
         <v>1</v>
       </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,17 +2022,20 @@
       <c r="E43">
         <v>0</v>
       </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1934,17 +2054,20 @@
       <c r="E44">
         <v>0</v>
       </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
       <c r="G44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1963,17 +2086,20 @@
       <c r="E45">
         <v>0</v>
       </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
       <c r="G45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1992,17 +2118,20 @@
       <c r="E46">
         <v>0</v>
       </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2021,17 +2150,20 @@
       <c r="E47">
         <v>0</v>
       </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
       <c r="G47">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2050,17 +2182,20 @@
       <c r="E48">
         <v>0</v>
       </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
       <c r="G48">
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2079,17 +2214,20 @@
       <c r="E49">
         <v>0</v>
       </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2108,17 +2246,20 @@
       <c r="E50">
         <v>0</v>
       </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2137,17 +2278,20 @@
       <c r="E51">
         <v>0</v>
       </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
       <c r="G51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2166,17 +2310,20 @@
       <c r="E52">
         <v>0</v>
       </c>
+      <c r="F52" t="s">
+        <v>53</v>
+      </c>
       <c r="G52">
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2196,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53">
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2227,17 +2374,20 @@
       <c r="E54">
         <v>0</v>
       </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2256,17 +2406,20 @@
       <c r="E55">
         <v>0</v>
       </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2285,17 +2438,20 @@
       <c r="E56">
         <v>0</v>
       </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
       <c r="G56">
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2314,17 +2470,20 @@
       <c r="E57">
         <v>0</v>
       </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
       <c r="G57">
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2343,17 +2502,20 @@
       <c r="E58">
         <v>0</v>
       </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
       <c r="G58">
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2372,17 +2534,20 @@
       <c r="E59">
         <v>0</v>
       </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2401,17 +2566,20 @@
       <c r="E60">
         <v>0</v>
       </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2430,17 +2598,20 @@
       <c r="E61">
         <v>0</v>
       </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
       <c r="G61">
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2459,17 +2630,20 @@
       <c r="E62">
         <v>1</v>
       </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2488,17 +2662,20 @@
       <c r="E63">
         <v>0</v>
       </c>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
       <c r="G63">
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2517,17 +2694,20 @@
       <c r="E64">
         <v>0</v>
       </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
       <c r="G64">
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2546,17 +2726,20 @@
       <c r="E65">
         <v>0</v>
       </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2576,19 +2759,19 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2607,17 +2790,20 @@
       <c r="E67">
         <v>0</v>
       </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
       <c r="G67">
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2636,17 +2822,20 @@
       <c r="E68">
         <v>0</v>
       </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
       <c r="G68">
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2665,17 +2854,20 @@
       <c r="E69">
         <v>0</v>
       </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
       <c r="G69">
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2694,17 +2886,20 @@
       <c r="E70">
         <v>0</v>
       </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
       <c r="G70">
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2723,17 +2918,20 @@
       <c r="E71">
         <v>1</v>
       </c>
+      <c r="F71" t="s">
+        <v>53</v>
+      </c>
       <c r="G71">
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2752,17 +2950,20 @@
       <c r="E72">
         <v>0</v>
       </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
       <c r="G72">
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2781,17 +2982,20 @@
       <c r="E73">
         <v>0</v>
       </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
       <c r="G73">
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2810,17 +3014,20 @@
       <c r="E74">
         <v>0</v>
       </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
       <c r="G74">
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2839,17 +3046,20 @@
       <c r="E75">
         <v>0</v>
       </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
       <c r="G75">
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2868,17 +3078,20 @@
       <c r="E76">
         <v>0</v>
       </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
       <c r="G76">
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2897,17 +3110,20 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
       <c r="G77">
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2926,17 +3142,20 @@
       <c r="E78">
         <v>0</v>
       </c>
+      <c r="F78" t="s">
+        <v>53</v>
+      </c>
       <c r="G78">
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2956,19 +3175,19 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G79">
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2987,17 +3206,20 @@
       <c r="E80">
         <v>0</v>
       </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
       <c r="G80">
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3016,17 +3238,20 @@
       <c r="E81">
         <v>0</v>
       </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3045,17 +3270,20 @@
       <c r="E82">
         <v>0</v>
       </c>
+      <c r="F82" t="s">
+        <v>53</v>
+      </c>
       <c r="G82">
         <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3074,17 +3302,20 @@
       <c r="E83">
         <v>0</v>
       </c>
+      <c r="F83" t="s">
+        <v>53</v>
+      </c>
       <c r="G83">
         <v>7</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3103,17 +3334,20 @@
       <c r="E84">
         <v>0</v>
       </c>
+      <c r="F84" t="s">
+        <v>53</v>
+      </c>
       <c r="G84">
         <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3132,17 +3366,20 @@
       <c r="E85">
         <v>0</v>
       </c>
+      <c r="F85" t="s">
+        <v>53</v>
+      </c>
       <c r="G85">
         <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3161,17 +3398,20 @@
       <c r="E86">
         <v>0</v>
       </c>
+      <c r="F86" t="s">
+        <v>53</v>
+      </c>
       <c r="G86">
         <v>7</v>
       </c>
       <c r="I86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3190,17 +3430,20 @@
       <c r="E87">
         <v>0</v>
       </c>
+      <c r="F87" t="s">
+        <v>53</v>
+      </c>
       <c r="G87">
         <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3219,17 +3462,20 @@
       <c r="E88">
         <v>0</v>
       </c>
+      <c r="F88" t="s">
+        <v>53</v>
+      </c>
       <c r="G88">
         <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3248,17 +3494,20 @@
       <c r="E89">
         <v>0</v>
       </c>
+      <c r="F89" t="s">
+        <v>53</v>
+      </c>
       <c r="G89">
         <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3277,17 +3526,20 @@
       <c r="E90">
         <v>1</v>
       </c>
+      <c r="F90" t="s">
+        <v>53</v>
+      </c>
       <c r="G90">
         <v>7</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3306,17 +3558,20 @@
       <c r="E91">
         <v>0</v>
       </c>
+      <c r="F91" t="s">
+        <v>53</v>
+      </c>
       <c r="G91">
         <v>7</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3336,19 +3591,19 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <v>7</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3367,17 +3622,20 @@
       <c r="E93">
         <v>0</v>
       </c>
+      <c r="F93" t="s">
+        <v>53</v>
+      </c>
       <c r="G93">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3396,20 +3654,23 @@
       <c r="E94">
         <v>1</v>
       </c>
+      <c r="F94" t="s">
+        <v>53</v>
+      </c>
       <c r="G94">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3428,17 +3689,20 @@
       <c r="E95">
         <v>0</v>
       </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
       <c r="G95">
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3457,17 +3721,20 @@
       <c r="E96">
         <v>0</v>
       </c>
+      <c r="F96" t="s">
+        <v>53</v>
+      </c>
       <c r="G96">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3486,17 +3753,20 @@
       <c r="E97">
         <v>0</v>
       </c>
+      <c r="F97" t="s">
+        <v>53</v>
+      </c>
       <c r="G97">
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3515,17 +3785,20 @@
       <c r="E98">
         <v>0</v>
       </c>
+      <c r="F98" t="s">
+        <v>53</v>
+      </c>
       <c r="G98">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3544,17 +3817,20 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99" t="s">
+        <v>53</v>
+      </c>
       <c r="G99">
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3573,17 +3849,20 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
       <c r="G100">
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3602,17 +3881,20 @@
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101" t="s">
+        <v>53</v>
+      </c>
       <c r="G101">
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3631,17 +3913,20 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="F102" t="s">
+        <v>53</v>
+      </c>
       <c r="G102">
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K102" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3660,17 +3945,20 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="F103" t="s">
+        <v>53</v>
+      </c>
       <c r="G103">
         <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3689,17 +3977,20 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="F104" t="s">
+        <v>53</v>
+      </c>
       <c r="G104">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K104" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3719,19 +4010,19 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G105">
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K105" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3750,17 +4041,20 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106" t="s">
+        <v>53</v>
+      </c>
       <c r="G106">
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J106" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3779,17 +4073,20 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="F107" t="s">
+        <v>53</v>
+      </c>
       <c r="G107">
         <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J107" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3808,17 +4105,20 @@
       <c r="E108">
         <v>0</v>
       </c>
+      <c r="F108" t="s">
+        <v>53</v>
+      </c>
       <c r="G108">
         <v>9</v>
       </c>
       <c r="I108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J108" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3837,17 +4137,20 @@
       <c r="E109">
         <v>0</v>
       </c>
+      <c r="F109" t="s">
+        <v>53</v>
+      </c>
       <c r="G109">
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3866,17 +4169,20 @@
       <c r="E110">
         <v>0</v>
       </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
       <c r="G110">
         <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3895,17 +4201,20 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="F111" t="s">
+        <v>53</v>
+      </c>
       <c r="G111">
         <v>9</v>
       </c>
       <c r="I111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3924,17 +4233,20 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="F112" t="s">
+        <v>53</v>
+      </c>
       <c r="G112">
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3953,17 +4265,20 @@
       <c r="E113">
         <v>1</v>
       </c>
+      <c r="F113" t="s">
+        <v>53</v>
+      </c>
       <c r="G113">
         <v>9</v>
       </c>
       <c r="I113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3982,17 +4297,20 @@
       <c r="E114">
         <v>0</v>
       </c>
+      <c r="F114" t="s">
+        <v>53</v>
+      </c>
       <c r="G114">
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K114" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4011,17 +4329,20 @@
       <c r="E115">
         <v>0</v>
       </c>
+      <c r="F115" t="s">
+        <v>53</v>
+      </c>
       <c r="G115">
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K115" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4040,17 +4361,20 @@
       <c r="E116">
         <v>0</v>
       </c>
+      <c r="F116" t="s">
+        <v>53</v>
+      </c>
       <c r="G116">
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4069,17 +4393,20 @@
       <c r="E117">
         <v>0</v>
       </c>
+      <c r="F117" t="s">
+        <v>53</v>
+      </c>
       <c r="G117">
         <v>9</v>
       </c>
       <c r="I117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J117" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4099,19 +4426,19 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G118">
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4130,17 +4457,20 @@
       <c r="E119">
         <v>0</v>
       </c>
+      <c r="F119" t="s">
+        <v>53</v>
+      </c>
       <c r="G119">
         <v>10</v>
       </c>
       <c r="I119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J119" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4159,17 +4489,20 @@
       <c r="E120">
         <v>0</v>
       </c>
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
       <c r="G120">
         <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J120" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4188,17 +4521,20 @@
       <c r="E121">
         <v>0</v>
       </c>
+      <c r="F121" t="s">
+        <v>53</v>
+      </c>
       <c r="G121">
         <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4217,17 +4553,20 @@
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="F122" t="s">
+        <v>53</v>
+      </c>
       <c r="G122">
         <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J122" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4246,17 +4585,20 @@
       <c r="E123">
         <v>0</v>
       </c>
+      <c r="F123" t="s">
+        <v>53</v>
+      </c>
       <c r="G123">
         <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J123" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4275,17 +4617,20 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="F124" t="s">
+        <v>53</v>
+      </c>
       <c r="G124">
         <v>10</v>
       </c>
       <c r="I124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K124" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4304,17 +4649,20 @@
       <c r="E125">
         <v>0</v>
       </c>
+      <c r="F125" t="s">
+        <v>53</v>
+      </c>
       <c r="G125">
         <v>10</v>
       </c>
       <c r="I125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J125" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4333,17 +4681,20 @@
       <c r="E126">
         <v>0</v>
       </c>
+      <c r="F126" t="s">
+        <v>53</v>
+      </c>
       <c r="G126">
         <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4362,17 +4713,20 @@
       <c r="E127">
         <v>0</v>
       </c>
+      <c r="F127" t="s">
+        <v>53</v>
+      </c>
       <c r="G127">
         <v>10</v>
       </c>
       <c r="I127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4391,17 +4745,20 @@
       <c r="E128">
         <v>0</v>
       </c>
+      <c r="F128" t="s">
+        <v>53</v>
+      </c>
       <c r="G128">
         <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J128" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K128" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4420,17 +4777,20 @@
       <c r="E129">
         <v>0</v>
       </c>
+      <c r="F129" t="s">
+        <v>53</v>
+      </c>
       <c r="G129">
         <v>10</v>
       </c>
       <c r="I129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K129" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4449,20 +4809,23 @@
       <c r="E130">
         <v>1</v>
       </c>
+      <c r="F130" t="s">
+        <v>53</v>
+      </c>
       <c r="G130">
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K130" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4482,19 +4845,19 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G131">
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K131" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4513,17 +4876,20 @@
       <c r="E132">
         <v>0</v>
       </c>
+      <c r="F132" t="s">
+        <v>53</v>
+      </c>
       <c r="G132">
         <v>11</v>
       </c>
       <c r="I132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K132" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4542,17 +4908,20 @@
       <c r="E133">
         <v>0</v>
       </c>
+      <c r="F133" t="s">
+        <v>53</v>
+      </c>
       <c r="G133">
         <v>11</v>
       </c>
       <c r="I133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K133" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -4571,17 +4940,20 @@
       <c r="E134">
         <v>0</v>
       </c>
+      <c r="F134" t="s">
+        <v>53</v>
+      </c>
       <c r="G134">
         <v>11</v>
       </c>
       <c r="I134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K134" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -4600,17 +4972,20 @@
       <c r="E135">
         <v>0</v>
       </c>
+      <c r="F135" t="s">
+        <v>53</v>
+      </c>
       <c r="G135">
         <v>11</v>
       </c>
       <c r="I135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K135" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -4629,17 +5004,20 @@
       <c r="E136">
         <v>0</v>
       </c>
+      <c r="F136" t="s">
+        <v>53</v>
+      </c>
       <c r="G136">
         <v>11</v>
       </c>
       <c r="I136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K136" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -4658,17 +5036,20 @@
       <c r="E137">
         <v>0</v>
       </c>
+      <c r="F137" t="s">
+        <v>53</v>
+      </c>
       <c r="G137">
         <v>11</v>
       </c>
       <c r="I137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K137" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -4687,17 +5068,20 @@
       <c r="E138">
         <v>0</v>
       </c>
+      <c r="F138" t="s">
+        <v>53</v>
+      </c>
       <c r="G138">
         <v>11</v>
       </c>
       <c r="I138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K138" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -4716,17 +5100,20 @@
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="F139" t="s">
+        <v>53</v>
+      </c>
       <c r="G139">
         <v>11</v>
       </c>
       <c r="I139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K139" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -4745,17 +5132,20 @@
       <c r="E140">
         <v>0</v>
       </c>
+      <c r="F140" t="s">
+        <v>53</v>
+      </c>
       <c r="G140">
         <v>11</v>
       </c>
       <c r="I140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K140" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -4774,17 +5164,20 @@
       <c r="E141">
         <v>0</v>
       </c>
+      <c r="F141" t="s">
+        <v>53</v>
+      </c>
       <c r="G141">
         <v>11</v>
       </c>
       <c r="I141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K141" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -4803,20 +5196,23 @@
       <c r="E142">
         <v>1</v>
       </c>
+      <c r="F142" t="s">
+        <v>53</v>
+      </c>
       <c r="G142">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K142" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -4835,22 +5231,25 @@
       <c r="E143">
         <v>0</v>
       </c>
+      <c r="F143" t="s">
+        <v>53</v>
+      </c>
       <c r="G143">
         <v>11</v>
       </c>
       <c r="I143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K143" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B144">
         <v>26</v>
@@ -4858,20 +5257,26 @@
       <c r="C144" t="s">
         <v>31</v>
       </c>
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
       <c r="E144">
         <v>0</v>
       </c>
+      <c r="F144" t="s">
+        <v>53</v>
+      </c>
       <c r="G144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J144" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="K144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -4885,22 +5290,25 @@
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E145">
         <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>53</v>
       </c>
       <c r="G145">
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K145" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -4914,22 +5322,25 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E146">
         <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>53</v>
       </c>
       <c r="G146">
         <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J146" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K146" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -4943,22 +5354,25 @@
         <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E147">
         <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>53</v>
       </c>
       <c r="G147">
         <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J147" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K147" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -4972,22 +5386,25 @@
         <v>31</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>53</v>
       </c>
       <c r="G148">
         <v>12</v>
       </c>
       <c r="I148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J148" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K148" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5001,22 +5418,25 @@
         <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>53</v>
       </c>
       <c r="G149">
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J149" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K149" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5030,22 +5450,25 @@
         <v>31</v>
       </c>
       <c r="D150" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E150">
         <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>53</v>
       </c>
       <c r="G150">
         <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5059,22 +5482,25 @@
         <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E151">
         <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>53</v>
       </c>
       <c r="G151">
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J151" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5088,22 +5514,25 @@
         <v>31</v>
       </c>
       <c r="D152" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E152">
         <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>53</v>
       </c>
       <c r="G152">
         <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J152" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K152" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5117,22 +5546,25 @@
         <v>31</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E153">
         <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>53</v>
       </c>
       <c r="G153">
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J153" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K153" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5146,22 +5578,25 @@
         <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E154">
         <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>53</v>
       </c>
       <c r="G154">
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J154" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5180,22 +5615,25 @@
       <c r="E155">
         <v>0</v>
       </c>
+      <c r="F155" t="s">
+        <v>53</v>
+      </c>
       <c r="G155">
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K155" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B156">
         <v>26</v>
@@ -5209,22 +5647,25 @@
       <c r="E156">
         <v>0</v>
       </c>
+      <c r="F156" t="s">
+        <v>53</v>
+      </c>
       <c r="G156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I156" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J156" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K156" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B157">
         <v>26</v>
@@ -5232,20 +5673,26 @@
       <c r="C157" t="s">
         <v>31</v>
       </c>
+      <c r="D157" t="s">
+        <v>44</v>
+      </c>
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="F157" t="s">
+        <v>53</v>
+      </c>
       <c r="G157">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I157" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J157" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5259,22 +5706,25 @@
         <v>31</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E158">
         <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>53</v>
       </c>
       <c r="G158">
         <v>13</v>
       </c>
       <c r="I158" t="s">
+        <v>71</v>
+      </c>
+      <c r="J158" t="s">
         <v>70</v>
       </c>
-      <c r="J158" t="s">
-        <v>69</v>
-      </c>
       <c r="K158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5293,17 +5743,20 @@
       <c r="E159">
         <v>0</v>
       </c>
+      <c r="F159" t="s">
+        <v>53</v>
+      </c>
       <c r="G159">
         <v>13</v>
       </c>
       <c r="I159" t="s">
+        <v>71</v>
+      </c>
+      <c r="J159" t="s">
         <v>70</v>
       </c>
-      <c r="J159" t="s">
-        <v>69</v>
-      </c>
       <c r="K159" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5317,22 +5770,25 @@
         <v>31</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>53</v>
       </c>
       <c r="G160">
         <v>13</v>
       </c>
       <c r="I160" t="s">
+        <v>71</v>
+      </c>
+      <c r="J160" t="s">
         <v>70</v>
       </c>
-      <c r="J160" t="s">
-        <v>69</v>
-      </c>
       <c r="K160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5346,22 +5802,25 @@
         <v>31</v>
       </c>
       <c r="D161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E161">
         <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>53</v>
       </c>
       <c r="G161">
         <v>13</v>
       </c>
       <c r="I161" t="s">
+        <v>71</v>
+      </c>
+      <c r="J161" t="s">
         <v>70</v>
       </c>
-      <c r="J161" t="s">
-        <v>69</v>
-      </c>
       <c r="K161" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5375,22 +5834,25 @@
         <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>53</v>
       </c>
       <c r="G162">
         <v>13</v>
       </c>
       <c r="I162" t="s">
+        <v>71</v>
+      </c>
+      <c r="J162" t="s">
         <v>70</v>
       </c>
-      <c r="J162" t="s">
-        <v>69</v>
-      </c>
       <c r="K162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5404,22 +5866,25 @@
         <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E163">
         <v>0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>53</v>
       </c>
       <c r="G163">
         <v>13</v>
       </c>
       <c r="I163" t="s">
+        <v>71</v>
+      </c>
+      <c r="J163" t="s">
         <v>70</v>
       </c>
-      <c r="J163" t="s">
-        <v>69</v>
-      </c>
       <c r="K163" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5433,22 +5898,25 @@
         <v>31</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E164">
         <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>53</v>
       </c>
       <c r="G164">
         <v>13</v>
       </c>
       <c r="I164" t="s">
+        <v>71</v>
+      </c>
+      <c r="J164" t="s">
         <v>70</v>
       </c>
-      <c r="J164" t="s">
-        <v>69</v>
-      </c>
       <c r="K164" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -5462,22 +5930,25 @@
         <v>31</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E165">
         <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>53</v>
       </c>
       <c r="G165">
         <v>13</v>
       </c>
       <c r="I165" t="s">
+        <v>71</v>
+      </c>
+      <c r="J165" t="s">
         <v>70</v>
       </c>
-      <c r="J165" t="s">
-        <v>69</v>
-      </c>
       <c r="K165" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -5491,22 +5962,25 @@
         <v>31</v>
       </c>
       <c r="D166" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E166">
         <v>0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>53</v>
       </c>
       <c r="G166">
         <v>13</v>
       </c>
       <c r="I166" t="s">
+        <v>71</v>
+      </c>
+      <c r="J166" t="s">
         <v>70</v>
       </c>
-      <c r="J166" t="s">
-        <v>69</v>
-      </c>
       <c r="K166" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -5520,27 +5994,30 @@
         <v>31</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E167">
         <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>53</v>
       </c>
       <c r="G167">
         <v>13</v>
       </c>
       <c r="I167" t="s">
+        <v>71</v>
+      </c>
+      <c r="J167" t="s">
         <v>70</v>
       </c>
-      <c r="J167" t="s">
-        <v>69</v>
-      </c>
       <c r="K167" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B168">
         <v>26</v>
@@ -5549,27 +6026,30 @@
         <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
+      <c r="F168" t="s">
+        <v>53</v>
+      </c>
       <c r="G168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J168" t="s">
         <v>69</v>
       </c>
       <c r="K168" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B169">
         <v>26</v>
@@ -5578,27 +6058,30 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
+      <c r="F169" t="s">
+        <v>53</v>
+      </c>
       <c r="G169">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I169" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J169" t="s">
         <v>69</v>
       </c>
       <c r="K169" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B170">
         <v>26</v>
@@ -5606,20 +6089,26 @@
       <c r="C170" t="s">
         <v>31</v>
       </c>
+      <c r="D170" t="s">
+        <v>44</v>
+      </c>
       <c r="E170">
         <v>0</v>
       </c>
+      <c r="F170" t="s">
+        <v>53</v>
+      </c>
       <c r="G170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J170" t="s">
         <v>69</v>
       </c>
       <c r="K170" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -5633,22 +6122,25 @@
         <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E171">
         <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>53</v>
       </c>
       <c r="G171">
         <v>14</v>
       </c>
       <c r="I171" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J171" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K171" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -5662,22 +6154,25 @@
         <v>31</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E172">
         <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>53</v>
       </c>
       <c r="G172">
         <v>14</v>
       </c>
       <c r="I172" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J172" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K172" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -5691,22 +6186,25 @@
         <v>31</v>
       </c>
       <c r="D173" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E173">
         <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>53</v>
       </c>
       <c r="G173">
         <v>14</v>
       </c>
       <c r="I173" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J173" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K173" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -5720,22 +6218,25 @@
         <v>31</v>
       </c>
       <c r="D174" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E174">
         <v>0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>53</v>
       </c>
       <c r="G174">
         <v>14</v>
       </c>
       <c r="I174" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J174" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K174" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -5749,22 +6250,25 @@
         <v>31</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E175">
         <v>0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>53</v>
       </c>
       <c r="G175">
         <v>14</v>
       </c>
       <c r="I175" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J175" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K175" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -5778,22 +6282,25 @@
         <v>31</v>
       </c>
       <c r="D176" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E176">
         <v>0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>53</v>
       </c>
       <c r="G176">
         <v>14</v>
       </c>
       <c r="I176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J176" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K176" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -5807,22 +6314,25 @@
         <v>31</v>
       </c>
       <c r="D177" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E177">
         <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>53</v>
       </c>
       <c r="G177">
         <v>14</v>
       </c>
       <c r="I177" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J177" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K177" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -5836,22 +6346,28 @@
         <v>31</v>
       </c>
       <c r="D178" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>53</v>
       </c>
       <c r="G178">
         <v>14</v>
       </c>
+      <c r="H178" t="s">
+        <v>55</v>
+      </c>
       <c r="I178" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J178" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K178" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -5865,27 +6381,30 @@
         <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E179">
         <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>53</v>
       </c>
       <c r="G179">
         <v>14</v>
       </c>
       <c r="I179" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J179" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K179" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B180">
         <v>26</v>
@@ -5894,27 +6413,30 @@
         <v>31</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
+      <c r="F180" t="s">
+        <v>53</v>
+      </c>
       <c r="G180">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J180" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K180" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B181">
         <v>26</v>
@@ -5923,30 +6445,30 @@
         <v>31</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>53</v>
       </c>
       <c r="G181">
-        <v>14</v>
-      </c>
-      <c r="H181" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J181" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K181" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B182">
         <v>26</v>
@@ -5955,27 +6477,30 @@
         <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
+      <c r="F182" t="s">
+        <v>53</v>
+      </c>
       <c r="G182">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J182" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K182" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B183">
         <v>26</v>
@@ -5983,20 +6508,26 @@
       <c r="C183" t="s">
         <v>31</v>
       </c>
+      <c r="D183" t="s">
+        <v>50</v>
+      </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>53</v>
       </c>
       <c r="G183">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J183" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K183" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6010,22 +6541,25 @@
         <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E184">
         <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>53</v>
       </c>
       <c r="G184">
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K184" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6039,22 +6573,25 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E185">
         <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>53</v>
       </c>
       <c r="G185">
         <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K185" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6068,22 +6605,25 @@
         <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E186">
         <v>0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>53</v>
       </c>
       <c r="G186">
         <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K186" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6097,22 +6637,25 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>53</v>
       </c>
       <c r="G187">
         <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J187" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K187" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6131,17 +6674,20 @@
       <c r="E188">
         <v>0</v>
       </c>
+      <c r="F188" t="s">
+        <v>53</v>
+      </c>
       <c r="G188">
         <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J188" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K188" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6155,22 +6701,25 @@
         <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E189">
         <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>53</v>
       </c>
       <c r="G189">
         <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J189" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K189" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6184,22 +6733,25 @@
         <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E190">
         <v>0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>53</v>
       </c>
       <c r="G190">
         <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J190" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6213,27 +6765,30 @@
         <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E191">
         <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>53</v>
       </c>
       <c r="G191">
         <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B192">
         <v>26</v>
@@ -6242,27 +6797,30 @@
         <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
+      <c r="F192" t="s">
+        <v>53</v>
+      </c>
       <c r="G192">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I192" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J192" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K192" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B193">
         <v>26</v>
@@ -6271,27 +6829,30 @@
         <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
+      <c r="F193" t="s">
+        <v>53</v>
+      </c>
       <c r="G193">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I193" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J193" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K193" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B194">
         <v>26</v>
@@ -6300,27 +6861,30 @@
         <v>31</v>
       </c>
       <c r="D194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
+      <c r="F194" t="s">
+        <v>53</v>
+      </c>
       <c r="G194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I194" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J194" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K194" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B195">
         <v>26</v>
@@ -6329,27 +6893,30 @@
         <v>31</v>
       </c>
       <c r="D195" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
+      <c r="F195" t="s">
+        <v>53</v>
+      </c>
       <c r="G195">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I195" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J195" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K195" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B196">
         <v>26</v>
@@ -6357,20 +6924,29 @@
       <c r="C196" t="s">
         <v>31</v>
       </c>
+      <c r="D196" t="s">
+        <v>42</v>
+      </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>53</v>
       </c>
       <c r="G196">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H196" t="s">
+        <v>55</v>
       </c>
       <c r="I196" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J196" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K196" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -6384,22 +6960,25 @@
         <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E197">
         <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>53</v>
       </c>
       <c r="G197">
         <v>16</v>
       </c>
       <c r="I197" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J197" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K197" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -6418,17 +6997,20 @@
       <c r="E198">
         <v>0</v>
       </c>
+      <c r="F198" t="s">
+        <v>53</v>
+      </c>
       <c r="G198">
         <v>16</v>
       </c>
       <c r="I198" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J198" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K198" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -6442,22 +7024,25 @@
         <v>31</v>
       </c>
       <c r="D199" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E199">
         <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>53</v>
       </c>
       <c r="G199">
         <v>16</v>
       </c>
       <c r="I199" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J199" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K199" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -6471,22 +7056,25 @@
         <v>31</v>
       </c>
       <c r="D200" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E200">
         <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>53</v>
       </c>
       <c r="G200">
         <v>16</v>
       </c>
       <c r="I200" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J200" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K200" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -6500,25 +7088,25 @@
         <v>31</v>
       </c>
       <c r="D201" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>53</v>
       </c>
       <c r="G201">
         <v>16</v>
       </c>
-      <c r="H201" t="s">
-        <v>54</v>
-      </c>
       <c r="I201" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J201" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K201" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -6532,22 +7120,25 @@
         <v>31</v>
       </c>
       <c r="D202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E202">
         <v>0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>53</v>
       </c>
       <c r="G202">
         <v>16</v>
       </c>
       <c r="I202" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J202" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K202" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -6561,27 +7152,30 @@
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E203">
         <v>0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>53</v>
       </c>
       <c r="G203">
         <v>16</v>
       </c>
       <c r="I203" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J203" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K203" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B204">
         <v>26</v>
@@ -6590,27 +7184,30 @@
         <v>31</v>
       </c>
       <c r="D204" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
+      <c r="F204" t="s">
+        <v>53</v>
+      </c>
       <c r="G204">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I204" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J204" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K204" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B205">
         <v>26</v>
@@ -6619,27 +7216,30 @@
         <v>31</v>
       </c>
       <c r="D205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
+      <c r="F205" t="s">
+        <v>53</v>
+      </c>
       <c r="G205">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I205" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J205" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K205" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B206">
         <v>26</v>
@@ -6648,27 +7248,30 @@
         <v>31</v>
       </c>
       <c r="D206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
+      <c r="F206" t="s">
+        <v>53</v>
+      </c>
       <c r="G206">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I206" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J206" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K206" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B207">
         <v>26</v>
@@ -6677,27 +7280,30 @@
         <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
+      <c r="F207" t="s">
+        <v>53</v>
+      </c>
       <c r="G207">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I207" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J207" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K207" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B208">
         <v>26</v>
@@ -6706,27 +7312,30 @@
         <v>31</v>
       </c>
       <c r="D208" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
+      <c r="F208" t="s">
+        <v>53</v>
+      </c>
       <c r="G208">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I208" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J208" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K208" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B209">
         <v>26</v>
@@ -6734,20 +7343,26 @@
       <c r="C209" t="s">
         <v>31</v>
       </c>
+      <c r="D209" t="s">
+        <v>48</v>
+      </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>53</v>
       </c>
       <c r="G209">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I209" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J209" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K209" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -6761,22 +7376,25 @@
         <v>31</v>
       </c>
       <c r="D210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E210">
         <v>0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>53</v>
       </c>
       <c r="G210">
         <v>17</v>
       </c>
       <c r="I210" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J210" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K210" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -6795,17 +7413,20 @@
       <c r="E211">
         <v>0</v>
       </c>
+      <c r="F211" t="s">
+        <v>53</v>
+      </c>
       <c r="G211">
         <v>17</v>
       </c>
       <c r="I211" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J211" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K211" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -6824,17 +7445,20 @@
       <c r="E212">
         <v>0</v>
       </c>
+      <c r="F212" t="s">
+        <v>53</v>
+      </c>
       <c r="G212">
         <v>17</v>
       </c>
       <c r="I212" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J212" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K212" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -6848,22 +7472,25 @@
         <v>31</v>
       </c>
       <c r="D213" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E213">
         <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>53</v>
       </c>
       <c r="G213">
         <v>17</v>
       </c>
       <c r="I213" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J213" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K213" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -6877,22 +7504,25 @@
         <v>31</v>
       </c>
       <c r="D214" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E214">
         <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>53</v>
       </c>
       <c r="G214">
         <v>17</v>
       </c>
       <c r="I214" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J214" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K214" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -6906,27 +7536,30 @@
         <v>31</v>
       </c>
       <c r="D215" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>53</v>
       </c>
       <c r="G215">
         <v>17</v>
       </c>
       <c r="I215" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J215" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K215" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B216">
         <v>26</v>
@@ -6935,27 +7568,30 @@
         <v>31</v>
       </c>
       <c r="D216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
+      <c r="F216" t="s">
+        <v>53</v>
+      </c>
       <c r="G216">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I216" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J216" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K216" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B217">
         <v>26</v>
@@ -6964,27 +7600,30 @@
         <v>31</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
+      <c r="F217" t="s">
+        <v>53</v>
+      </c>
       <c r="G217">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I217" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J217" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K217" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B218">
         <v>26</v>
@@ -6993,27 +7632,33 @@
         <v>31</v>
       </c>
       <c r="D218" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>53</v>
       </c>
       <c r="G218">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H218" t="s">
+        <v>55</v>
       </c>
       <c r="I218" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J218" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K218" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B219">
         <v>26</v>
@@ -7022,27 +7667,30 @@
         <v>31</v>
       </c>
       <c r="D219" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
+      <c r="F219" t="s">
+        <v>53</v>
+      </c>
       <c r="G219">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I219" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J219" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K219" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B220">
         <v>26</v>
@@ -7051,27 +7699,30 @@
         <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
+      <c r="F220" t="s">
+        <v>53</v>
+      </c>
       <c r="G220">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I220" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J220" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K220" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B221">
         <v>26</v>
@@ -7080,27 +7731,30 @@
         <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
+      <c r="F221" t="s">
+        <v>53</v>
+      </c>
       <c r="G221">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I221" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J221" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K221" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B222">
         <v>26</v>
@@ -7108,20 +7762,26 @@
       <c r="C222" t="s">
         <v>31</v>
       </c>
+      <c r="D222" t="s">
+        <v>52</v>
+      </c>
       <c r="E222">
         <v>0</v>
       </c>
+      <c r="F222" t="s">
+        <v>53</v>
+      </c>
       <c r="G222">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I222" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J222" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K222" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7140,17 +7800,20 @@
       <c r="E223">
         <v>0</v>
       </c>
+      <c r="F223" t="s">
+        <v>53</v>
+      </c>
       <c r="G223">
         <v>18</v>
       </c>
       <c r="I223" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J223" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K223" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7164,22 +7827,25 @@
         <v>31</v>
       </c>
       <c r="D224" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E224">
         <v>0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>53</v>
       </c>
       <c r="G224">
         <v>18</v>
       </c>
       <c r="I224" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J224" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K224" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7193,25 +7859,25 @@
         <v>31</v>
       </c>
       <c r="D225" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>53</v>
       </c>
       <c r="G225">
         <v>18</v>
       </c>
-      <c r="H225" t="s">
-        <v>54</v>
-      </c>
       <c r="I225" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J225" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K225" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7225,22 +7891,28 @@
         <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E226">
         <v>0</v>
+      </c>
+      <c r="F226" t="s">
+        <v>53</v>
       </c>
       <c r="G226">
         <v>18</v>
       </c>
+      <c r="H226" t="s">
+        <v>55</v>
+      </c>
       <c r="I226" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J226" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K226" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7254,27 +7926,30 @@
         <v>31</v>
       </c>
       <c r="D227" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E227">
         <v>0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>53</v>
       </c>
       <c r="G227">
         <v>18</v>
       </c>
       <c r="I227" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J227" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K227" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B228">
         <v>26</v>
@@ -7283,27 +7958,30 @@
         <v>31</v>
       </c>
       <c r="D228" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
+      <c r="F228" t="s">
+        <v>53</v>
+      </c>
       <c r="G228">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I228" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J228" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K228" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B229">
         <v>26</v>
@@ -7312,27 +7990,30 @@
         <v>31</v>
       </c>
       <c r="D229" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
+      <c r="F229" t="s">
+        <v>53</v>
+      </c>
       <c r="G229">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I229" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J229" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K229" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B230">
         <v>26</v>
@@ -7341,27 +8022,30 @@
         <v>31</v>
       </c>
       <c r="D230" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
+      <c r="F230" t="s">
+        <v>53</v>
+      </c>
       <c r="G230">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I230" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J230" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K230" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B231">
         <v>26</v>
@@ -7370,27 +8054,30 @@
         <v>31</v>
       </c>
       <c r="D231" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
+      <c r="F231" t="s">
+        <v>53</v>
+      </c>
       <c r="G231">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I231" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J231" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K231" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B232">
         <v>26</v>
@@ -7399,27 +8086,30 @@
         <v>31</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
+      <c r="F232" t="s">
+        <v>53</v>
+      </c>
       <c r="G232">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I232" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J232" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K232" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B233">
         <v>26</v>
@@ -7428,30 +8118,30 @@
         <v>31</v>
       </c>
       <c r="D233" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
+      <c r="F233" t="s">
+        <v>53</v>
+      </c>
       <c r="G233">
-        <v>18</v>
-      </c>
-      <c r="H233" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I233" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J233" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K233" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B234">
         <v>26</v>
@@ -7460,27 +8150,30 @@
         <v>31</v>
       </c>
       <c r="D234" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
+      <c r="F234" t="s">
+        <v>53</v>
+      </c>
       <c r="G234">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I234" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J234" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K234" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B235">
         <v>26</v>
@@ -7488,20 +8181,29 @@
       <c r="C235" t="s">
         <v>31</v>
       </c>
+      <c r="D235" t="s">
+        <v>42</v>
+      </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>53</v>
       </c>
       <c r="G235">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H235" t="s">
+        <v>55</v>
       </c>
       <c r="I235" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J235" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K235" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -7515,22 +8217,28 @@
         <v>31</v>
       </c>
       <c r="D236" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E236">
         <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>53</v>
       </c>
       <c r="G236">
         <v>19</v>
       </c>
+      <c r="H236" t="s">
+        <v>55</v>
+      </c>
       <c r="I236" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J236" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K236" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -7544,22 +8252,25 @@
         <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E237">
         <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>53</v>
       </c>
       <c r="G237">
         <v>19</v>
       </c>
       <c r="I237" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J237" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K237" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -7573,22 +8284,25 @@
         <v>31</v>
       </c>
       <c r="D238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E238">
         <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>53</v>
       </c>
       <c r="G238">
         <v>19</v>
       </c>
       <c r="I238" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J238" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K238" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -7602,27 +8316,30 @@
         <v>31</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E239">
         <v>0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>53</v>
       </c>
       <c r="G239">
         <v>19</v>
       </c>
       <c r="I239" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J239" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K239" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B240">
         <v>26</v>
@@ -7631,27 +8348,30 @@
         <v>31</v>
       </c>
       <c r="D240" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
+      <c r="F240" t="s">
+        <v>53</v>
+      </c>
       <c r="G240">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I240" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J240" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K240" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B241">
         <v>26</v>
@@ -7660,27 +8380,30 @@
         <v>31</v>
       </c>
       <c r="D241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
+      <c r="F241" t="s">
+        <v>53</v>
+      </c>
       <c r="G241">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I241" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J241" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K241" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B242">
         <v>26</v>
@@ -7689,27 +8412,30 @@
         <v>31</v>
       </c>
       <c r="D242" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
+      <c r="F242" t="s">
+        <v>53</v>
+      </c>
       <c r="G242">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I242" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J242" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K242" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B243">
         <v>26</v>
@@ -7718,30 +8444,30 @@
         <v>31</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>53</v>
       </c>
       <c r="G243">
-        <v>19</v>
-      </c>
-      <c r="H243" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I243" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J243" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K243" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B244">
         <v>26</v>
@@ -7753,27 +8479,30 @@
         <v>42</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>53</v>
       </c>
       <c r="G244">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H244" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I244" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J244" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K244" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B245">
         <v>26</v>
@@ -7782,27 +8511,30 @@
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E245">
         <v>0</v>
       </c>
+      <c r="F245" t="s">
+        <v>53</v>
+      </c>
       <c r="G245">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I245" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J245" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K245" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B246">
         <v>26</v>
@@ -7811,27 +8543,30 @@
         <v>31</v>
       </c>
       <c r="D246" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
+      <c r="F246" t="s">
+        <v>53</v>
+      </c>
       <c r="G246">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I246" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J246" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K246" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B247">
         <v>26</v>
@@ -7840,27 +8575,33 @@
         <v>31</v>
       </c>
       <c r="D247" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
+      <c r="F247" t="s">
+        <v>53</v>
+      </c>
       <c r="G247">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H247" t="s">
+        <v>58</v>
       </c>
       <c r="I247" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J247" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K247" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B248">
         <v>26</v>
@@ -7868,20 +8609,26 @@
       <c r="C248" t="s">
         <v>31</v>
       </c>
+      <c r="D248" t="s">
+        <v>51</v>
+      </c>
       <c r="E248">
         <v>0</v>
       </c>
+      <c r="F248" t="s">
+        <v>53</v>
+      </c>
       <c r="G248">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I248" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J248" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K248" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -7895,22 +8642,25 @@
         <v>31</v>
       </c>
       <c r="D249" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E249">
         <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>53</v>
       </c>
       <c r="G249">
         <v>20</v>
       </c>
       <c r="I249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J249" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K249" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -7924,22 +8674,25 @@
         <v>31</v>
       </c>
       <c r="D250" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E250">
         <v>0</v>
+      </c>
+      <c r="F250" t="s">
+        <v>53</v>
       </c>
       <c r="G250">
         <v>20</v>
       </c>
       <c r="I250" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J250" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K250" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -7953,318 +8706,28 @@
         <v>31</v>
       </c>
       <c r="D251" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E251">
         <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>53</v>
       </c>
       <c r="G251">
         <v>20</v>
       </c>
+      <c r="H251" t="s">
+        <v>55</v>
+      </c>
       <c r="I251" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J251" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K251" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" t="s">
-        <v>30</v>
-      </c>
-      <c r="B252">
-        <v>26</v>
-      </c>
-      <c r="C252" t="s">
-        <v>31</v>
-      </c>
-      <c r="D252" t="s">
-        <v>48</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="G252">
-        <v>20</v>
-      </c>
-      <c r="I252" t="s">
-        <v>77</v>
-      </c>
-      <c r="J252" t="s">
-        <v>90</v>
-      </c>
-      <c r="K252" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" t="s">
-        <v>30</v>
-      </c>
-      <c r="B253">
-        <v>26</v>
-      </c>
-      <c r="C253" t="s">
-        <v>31</v>
-      </c>
-      <c r="D253" t="s">
-        <v>42</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>20</v>
-      </c>
-      <c r="H253" t="s">
-        <v>56</v>
-      </c>
-      <c r="I253" t="s">
-        <v>77</v>
-      </c>
-      <c r="J253" t="s">
-        <v>90</v>
-      </c>
-      <c r="K253" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
-      <c r="A254" t="s">
-        <v>30</v>
-      </c>
-      <c r="B254">
-        <v>26</v>
-      </c>
-      <c r="C254" t="s">
-        <v>31</v>
-      </c>
-      <c r="D254" t="s">
-        <v>38</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="G254">
-        <v>20</v>
-      </c>
-      <c r="I254" t="s">
-        <v>77</v>
-      </c>
-      <c r="J254" t="s">
-        <v>90</v>
-      </c>
-      <c r="K254" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" t="s">
-        <v>30</v>
-      </c>
-      <c r="B255">
-        <v>26</v>
-      </c>
-      <c r="C255" t="s">
-        <v>31</v>
-      </c>
-      <c r="D255" t="s">
-        <v>48</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="G255">
-        <v>20</v>
-      </c>
-      <c r="I255" t="s">
-        <v>77</v>
-      </c>
-      <c r="J255" t="s">
-        <v>90</v>
-      </c>
-      <c r="K255" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" t="s">
-        <v>30</v>
-      </c>
-      <c r="B256">
-        <v>26</v>
-      </c>
-      <c r="C256" t="s">
-        <v>31</v>
-      </c>
-      <c r="D256" t="s">
-        <v>42</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="G256">
-        <v>20</v>
-      </c>
-      <c r="H256" t="s">
-        <v>57</v>
-      </c>
-      <c r="I256" t="s">
-        <v>77</v>
-      </c>
-      <c r="J256" t="s">
-        <v>90</v>
-      </c>
-      <c r="K256" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
-      <c r="A257" t="s">
-        <v>30</v>
-      </c>
-      <c r="B257">
-        <v>26</v>
-      </c>
-      <c r="C257" t="s">
-        <v>31</v>
-      </c>
-      <c r="D257" t="s">
-        <v>51</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-      <c r="G257">
-        <v>20</v>
-      </c>
-      <c r="I257" t="s">
-        <v>77</v>
-      </c>
-      <c r="J257" t="s">
-        <v>90</v>
-      </c>
-      <c r="K257" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
-      <c r="A258" t="s">
-        <v>30</v>
-      </c>
-      <c r="B258">
-        <v>26</v>
-      </c>
-      <c r="C258" t="s">
-        <v>31</v>
-      </c>
-      <c r="D258" t="s">
-        <v>51</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="G258">
-        <v>20</v>
-      </c>
-      <c r="I258" t="s">
-        <v>77</v>
-      </c>
-      <c r="J258" t="s">
-        <v>90</v>
-      </c>
-      <c r="K258" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" t="s">
-        <v>30</v>
-      </c>
-      <c r="B259">
-        <v>26</v>
-      </c>
-      <c r="C259" t="s">
-        <v>31</v>
-      </c>
-      <c r="D259" t="s">
-        <v>47</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="G259">
-        <v>20</v>
-      </c>
-      <c r="I259" t="s">
-        <v>77</v>
-      </c>
-      <c r="J259" t="s">
-        <v>90</v>
-      </c>
-      <c r="K259" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" t="s">
-        <v>30</v>
-      </c>
-      <c r="B260">
-        <v>26</v>
-      </c>
-      <c r="C260" t="s">
-        <v>31</v>
-      </c>
-      <c r="D260" t="s">
-        <v>42</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="G260">
-        <v>20</v>
-      </c>
-      <c r="H260" t="s">
-        <v>54</v>
-      </c>
-      <c r="I260" t="s">
-        <v>77</v>
-      </c>
-      <c r="J260" t="s">
-        <v>90</v>
-      </c>
-      <c r="K260" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" t="s">
-        <v>30</v>
-      </c>
-      <c r="B261">
-        <v>26</v>
-      </c>
-      <c r="C261" t="s">
-        <v>31</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="G261">
-        <v>20</v>
-      </c>
-      <c r="I261" t="s">
-        <v>77</v>
-      </c>
-      <c r="J261" t="s">
-        <v>90</v>
-      </c>
-      <c r="K261" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/results/Semaine Olympique Francaise De Voile 2017_49erFX.xlsx
+++ b/results/Semaine Olympique Francaise De Voile 2017_49erFX.xlsx
@@ -175,10 +175,10 @@
     <t>17.0</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>MR</t>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>MEDAL RACE</t>
   </si>
   <si>
     <t>UFD</t>
